--- a/Documents.xlsx
+++ b/Documents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,30 +436,25 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Parent Page</t>
+          <t>Child Page</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Child Page</t>
+          <t>Link Name</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Link Name</t>
+          <t>Link Address</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Link Address</t>
+          <t>Migrated to SP</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Migrated to SP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Deleted off D10</t>
         </is>
@@ -476,25 +471,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Read more about this position.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Read more about this position.</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EVI5oLVTxyZDo9cLtbwAj1wBbpA2JGGIs9i1Zg2qs7qoWg?e=TfXtu3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EVI5oLVTxyZDo9cLtbwAj1wBbpA2JGGIs9i1Zg2qs7qoWg?e=TfXtu3</t>
+          <t> </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -511,25 +501,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Read more about this position.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Read more about this position.</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQRusIwdsOtMhxBwm-PYYB8BeJS-Olc7V7Bsra0GO8JuIQ?e=UIrUS1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQRusIwdsOtMhxBwm-PYYB8BeJS-Olc7V7Bsra0GO8JuIQ?e=UIrUS1</t>
+          <t> </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -546,25 +531,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Read more about this position.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Read more about this position.</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EV3pThfEThdLkW8eEgITlIEBGO4YiNRX5qzKixdlZVV0TQ?e=6g1ReX</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EV3pThfEThdLkW8eEgITlIEBGO4YiNRX5qzKixdlZVV0TQ?e=6g1ReX</t>
+          <t> </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -581,25 +561,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Read more about this position.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Read more about this position.</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EX2wFzMtYiJAkHcS_1wNxZgBwNS7Qrlshg28ZfLc_eX3nw?e=4jGa8l</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EX2wFzMtYiJAkHcS_1wNxZgBwNS7Qrlshg28ZfLc_eX3nw?e=4jGa8l</t>
+          <t> </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -616,25 +591,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Read more about this position.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Read more about this position.</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EZtxLH_ezyVFqXaeyvBmmn4BDbSDj6dSy1SywPBWrVTPIg?e=06LQsF</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EZtxLH_ezyVFqXaeyvBmmn4BDbSDj6dSy1SywPBWrVTPIg?e=06LQsF</t>
+          <t> </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -651,25 +621,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Read more about this position.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Read more about this position.</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ESWGcT94QNRBizk5elwwyYkBP9wRuuDAba5YdmbRuenHxA?e=ipE7WD</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ESWGcT94QNRBizk5elwwyYkBP9wRuuDAba5YdmbRuenHxA?e=ipE7WD</t>
+          <t> </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -686,25 +651,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Read more about this position.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Read more about this position.</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EXsHc-dJV5hAhd_uQ5ODmg8B-Tir-I8smlxFwEgMIbejTA?e=ipeFZk</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EXsHc-dJV5hAhd_uQ5ODmg8B-Tir-I8smlxFwEgMIbejTA?e=ipeFZk</t>
+          <t> </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -721,25 +681,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Read more about this position.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Read more about this position.</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQ41ayBECtdDrEi3ALl_FOkBugec0yX2UgOtSzlS6NUCAw?e=D2SCRX</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQ41ayBECtdDrEi3ALl_FOkBugec0yX2UgOtSzlS6NUCAw?e=D2SCRX</t>
+          <t> </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -756,25 +711,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Read more about this position.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Read more about this position.</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EeKNa4cSF9RKtZmN-cuBvMMBCtafvpX9BWPWC2bSGNkXeA?e=bnmDTE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EeKNa4cSF9RKtZmN-cuBvMMBCtafvpX9BWPWC2bSGNkXeA?e=bnmDTE</t>
+          <t> </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -791,25 +741,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Read more about this position.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Read more about this position.</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ebk1ydOgnlVNjdoJ9_kLgNoBvz_QBCZCRXTX8lZuYUhMaQ?e=jwIRfN</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ebk1ydOgnlVNjdoJ9_kLgNoBvz_QBCZCRXTX8lZuYUhMaQ?e=jwIRfN</t>
+          <t> </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -826,25 +771,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Read more about this position.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Read more about this position.</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EXiVkj4MypVFshrlHDc6ZsgB8oD36vPpWSE3-FbE1uMdIw?e=0jRtis</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EXiVkj4MypVFshrlHDc6ZsgB8oD36vPpWSE3-FbE1uMdIw?e=0jRtis</t>
+          <t> </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -861,25 +801,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Read more about this position.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Read more about this position.</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EVUueBdqWthClnEzq0Bz1G8BKAfC26rA1mzTiWRJTRpQXQ?e=MVOScb</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EVUueBdqWthClnEzq0Bz1G8BKAfC26rA1mzTiWRJTRpQXQ?e=MVOScb</t>
+          <t> </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -896,25 +831,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Read more about this position.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Read more about this position.</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ec_MmGmVn-lKlW3AdwBqyRoBfCe8lv_U8mO67_ColcFR9Q?e=TzfdwR</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ec_MmGmVn-lKlW3AdwBqyRoBfCe8lv_U8mO67_ColcFR9Q?e=TzfdwR</t>
+          <t> </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -931,25 +861,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Read more about this position.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Read more about this position.</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EdCQzbhJuVtLtc8T0PMsajIB4dfL7LrvFNfrX3mbjEh0kw?e=Lzbmnd</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EdCQzbhJuVtLtc8T0PMsajIB4dfL7LrvFNfrX3mbjEh0kw?e=Lzbmnd</t>
+          <t> </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -966,25 +891,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Read more about this position.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Read more about this position.</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EVI927eOjA9Am8rn7Yl9klcBCSvbscGhusESXotft-44ig?e=geukY7</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EVI927eOjA9Am8rn7Yl9klcBCSvbscGhusESXotft-44ig?e=geukY7</t>
+          <t> </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1001,25 +921,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Read more about this position.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Read more about this position.</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQkgYT9NxgdEkB7KRECFf-IBY70GT3R4jszzZLqNN7ay2w?e=PPlxKA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQkgYT9NxgdEkB7KRECFf-IBY70GT3R4jszzZLqNN7ay2w?e=PPlxKA</t>
+          <t> </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1036,25 +951,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Read more about this position.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Read more about this position.</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EWVlqcZraXxLpCzANOJ72r8BYkiYxpW7CA5glnK0RHT5ig?e=qzZfWc</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EWVlqcZraXxLpCzANOJ72r8BYkiYxpW7CA5glnK0RHT5ig?e=qzZfWc</t>
+          <t> </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1071,25 +981,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Read more about this position.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Read more about this position.</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EWyKDcVyEONFpd0VxzdA3RQBTcDHv2G-LbuZzgyL30EuWg?e=P9paA9</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EWyKDcVyEONFpd0VxzdA3RQBTcDHv2G-LbuZzgyL30EuWg?e=P9paA9</t>
+          <t> </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1106,25 +1011,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI Board Meeting</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ASI Board Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EYEYUDU16qREmZ7XpoCSfUkBA7TpKu4bgP6amtGJHcrrpg?e=PgnX9Y</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EYEYUDU16qREmZ7XpoCSfUkBA7TpKu4bgP6amtGJHcrrpg?e=PgnX9Y</t>
+          <t> </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1141,25 +1041,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EZ8YJ5kmnotOpWrZ99qUvbYB6T8lH3ol4PCbPyPGRlXiiQ?e=tzTkEy</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EZ8YJ5kmnotOpWrZ99qUvbYB6T8lH3ol4PCbPyPGRlXiiQ?e=tzTkEy</t>
+          <t> </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1176,25 +1071,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI Board Meeting</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ASI Board Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EeAwfxQZGFJLmxhDvO7L2JYB7S4qyPF-zy3H10Wc4-LTug?e=MbdcvU</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EeAwfxQZGFJLmxhDvO7L2JYB7S4qyPF-zy3H10Wc4-LTug?e=MbdcvU</t>
+          <t> </t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1211,25 +1101,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EWVr8PsoUQFFiUNmIknCp4gBsUGT5y0fPuihOB09Vjyoaw?e=WdDUTE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EWVr8PsoUQFFiUNmIknCp4gBsUGT5y0fPuihOB09Vjyoaw?e=WdDUTE</t>
+          <t> </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1246,25 +1131,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI Board Meeting</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ASI Board Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EUkCmqHerS5JsN1mgzt4EZwBSEVNS07NDcIysUzwHd70zQ?e=xpm9Fx</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EUkCmqHerS5JsN1mgzt4EZwBSEVNS07NDcIysUzwHd70zQ?e=xpm9Fx</t>
+          <t> </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1281,25 +1161,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EbMqCulMrwZHrmLmQxO4-rEBPWexVBIb7t-g58lZxEhM8Q?e=fR0J9f</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EbMqCulMrwZHrmLmQxO4-rEBPWexVBIb7t-g58lZxEhM8Q?e=fR0J9f</t>
+          <t> </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1316,25 +1191,20 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI Board Meeting</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ASI Board Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EXICboKFOKlBnsdoPFnv_FgBD1ulMNgfHhwVzcNxERjM5g?e=yBpIfH</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EXICboKFOKlBnsdoPFnv_FgBD1ulMNgfHhwVzcNxERjM5g?e=yBpIfH</t>
+          <t> </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1351,25 +1221,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EcKuSYTxQixGpgNdUD86mU4BYpZCaF34RSpptlVOd8pZWQ?e=gwlacA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EcKuSYTxQixGpgNdUD86mU4BYpZCaF34RSpptlVOd8pZWQ?e=gwlacA</t>
+          <t> </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1386,25 +1251,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI Board Meeting</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ASI Board Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EVDwAcrAp4RAvTWEPwIviLwBuBjODBkWNFKxX6h6R1-uow?e=BdGhYG</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EVDwAcrAp4RAvTWEPwIviLwBuBjODBkWNFKxX6h6R1-uow?e=BdGhYG</t>
+          <t> </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1421,25 +1281,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/r/sites/StanStatePublicDocs/Shared%20Documents/Associated%20Students,%20Inc/Board%20Meetings/Minutes/Spring%202025/3-18-25%20ASI%20BOD%20Minutes%20-%20signed.pdf?csf=1&amp;web=1&amp;e=Vn16fX</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/r/sites/StanStatePublicDocs/Shared%20Documents/Associated%20Students,%20Inc/Board%20Meetings/Minutes/Spring%202025/3-18-25%20ASI%20BOD%20Minutes%20-%20signed.pdf?csf=1&amp;web=1&amp;e=Vn16fX</t>
+          <t> </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1456,25 +1311,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI Board Meeting</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ASI Board Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EdSWRI0Y2GVJiSzF1-Vk8FwBgt667yw8qKxokIbMfbsEYw?e=n6nM0n</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EdSWRI0Y2GVJiSzF1-Vk8FwBgt667yw8qKxokIbMfbsEYw?e=n6nM0n</t>
+          <t> </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1491,25 +1341,20 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI Board Meeting</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ASI Board Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ed3vlqo_UDJEuV6nMj5psV4BtVnihyhulhg_YS1T641tLg?e=1N7fvl</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ed3vlqo_UDJEuV6nMj5psV4BtVnihyhulhg_YS1T641tLg?e=1N7fvl</t>
+          <t> </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1526,25 +1371,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EU98LsDMi_JCuwrtE5tMWqYBVu_nrM0vQO7bfH4t4Vq8nw?e=sGZvbQ</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EU98LsDMi_JCuwrtE5tMWqYBVu_nrM0vQO7bfH4t4Vq8nw?e=sGZvbQ</t>
+          <t> </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1561,25 +1401,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI Board Meeting</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ASI Board Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ER_Yi_b0n5JNpMfow1fok-oBdHngRg6sl4Jodivyufiq4g?e=3l7mAK</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ER_Yi_b0n5JNpMfow1fok-oBdHngRg6sl4Jodivyufiq4g?e=3l7mAK</t>
+          <t> </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1596,25 +1431,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EYHu-lA75xtNnIg-GhQAT_MBtmk_AeJTvSoNowdf9OcxZA?e=XKHBut</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EYHu-lA75xtNnIg-GhQAT_MBtmk_AeJTvSoNowdf9OcxZA?e=XKHBut</t>
+          <t> </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1631,25 +1461,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI Board Meeting</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ASI Board Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EcZU93QQP7VPj3VO0fEBpdoBkDtkWzozgMPtWqL9OWBO6Q?e=p3tkXE</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EcZU93QQP7VPj3VO0fEBpdoBkDtkWzozgMPtWqL9OWBO6Q?e=p3tkXE</t>
+          <t> </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1666,25 +1491,20 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ef_pxp6VLAJFsL0CpohxtpgBBh-fHHqYc0P7lo51dwF4yw?e=SJa0Q4</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ef_pxp6VLAJFsL0CpohxtpgBBh-fHHqYc0P7lo51dwF4yw?e=SJa0Q4</t>
+          <t> </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1701,25 +1521,20 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI Board Meeting</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ASI Board Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EX1mM3hVigtJhEJt1-0_JOoBbEVHb4Hz-qDeSLV4XL481g?e=rBYLdz</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EX1mM3hVigtJhEJt1-0_JOoBbEVHb4Hz-qDeSLV4XL481g?e=rBYLdz</t>
+          <t> </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1736,25 +1551,20 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EUQHxfKRm3ZBhH8BRIlGoSQBqNXwN5vhdXdlc1fVFD4cRA?e=ekKpXh</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EUQHxfKRm3ZBhH8BRIlGoSQBqNXwN5vhdXdlc1fVFD4cRA?e=ekKpXh</t>
+          <t> </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1771,25 +1581,20 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI Board Meeting</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ASI Board Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ea7flr34-gJGmxyLv740r8ABkkaF7BRCxGEIrxDtf6jZEw?e=Xhy9Zc</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ea7flr34-gJGmxyLv740r8ABkkaF7BRCxGEIrxDtf6jZEw?e=Xhy9Zc</t>
+          <t> </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1806,25 +1611,20 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ETHCPr35cwVEnRgDEP-jUWsBnxCOlxkLy5f2GdC9X8CpSw?e=wOzkCK</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ETHCPr35cwVEnRgDEP-jUWsBnxCOlxkLy5f2GdC9X8CpSw?e=wOzkCK</t>
+          <t> </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1841,25 +1641,20 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI Board Meeting</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ASI Board Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ef4BbisP9ERKudIBGlAriVABGJf2EfDAJQU0SQcsGfn4Yg?e=fmwgRq</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ef4BbisP9ERKudIBGlAriVABGJf2EfDAJQU0SQcsGfn4Yg?e=fmwgRq</t>
+          <t> </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1876,25 +1671,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EZkPTYhMnJxCiNoNtBemPXEBcxqoUscJFM9TwYd9H1YRfw?e=rJ4mPR</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EZkPTYhMnJxCiNoNtBemPXEBcxqoUscJFM9TwYd9H1YRfw?e=rJ4mPR</t>
+          <t> </t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1911,25 +1701,20 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI Board Meeting</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ASI Board Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EXHx91mGjytPqvfM0zBnb68BGubTgksy-DdBe31F_VAQ7A?e=lvVkX4</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EXHx91mGjytPqvfM0zBnb68BGubTgksy-DdBe31F_VAQ7A?e=lvVkX4</t>
+          <t> </t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1946,25 +1731,20 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ea8wwxgx6PhOhtmYwfT05JkBsH_atB1Jc4vSyX8kW3oaJw?e=6WCsch</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ea8wwxgx6PhOhtmYwfT05JkBsH_atB1Jc4vSyX8kW3oaJw?e=6WCsch</t>
+          <t> </t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -1981,25 +1761,20 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI Board Meeting</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ASI Board Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQa_xvxvSJlIm2VJDOu8Px8BoQinCTvqRCbwZ9SJf259gg?e=XqMb2Q</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQa_xvxvSJlIm2VJDOu8Px8BoQinCTvqRCbwZ9SJf259gg?e=XqMb2Q</t>
+          <t> </t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2016,25 +1791,20 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EWiwW1_C5IRCuU9QgraOQoUBVnXxVMG-cC25JGFvk4NG4w?e=5yHoP1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EWiwW1_C5IRCuU9QgraOQoUBVnXxVMG-cC25JGFvk4NG4w?e=5yHoP1</t>
+          <t> </t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2051,25 +1821,20 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI Board Meeting</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ASI Board Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ETtRou2GWUlOn7cZBzdgJEYBnlXQprUnK445NTlMTRX8Pg?e=ucUswC</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ETtRou2GWUlOn7cZBzdgJEYBnlXQprUnK445NTlMTRX8Pg?e=ucUswC</t>
+          <t> </t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2086,25 +1851,20 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EV6YTyWftLpGh3dxdAMDKuwBJkfxsyNXWCikKQ1Qu54tEg?e=7YYMve</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EV6YTyWftLpGh3dxdAMDKuwBJkfxsyNXWCikKQ1Qu54tEg?e=7YYMve</t>
+          <t> </t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2121,25 +1881,20 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI Board Meeting</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ASI Board Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ETS9mmx2BKBPoBcroKiTUdsBADDw4uB2E8btFel2Msql3g?e=dtC9B3</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ETS9mmx2BKBPoBcroKiTUdsBADDw4uB2E8btFel2Msql3g?e=dtC9B3</t>
+          <t> </t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2156,25 +1911,20 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQ7UWaNaxHBOm_fajpmvpKcBYQ2K_FhQDWxMsrO-ciHMQw?e=qRgFjl</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQ7UWaNaxHBOm_fajpmvpKcBYQ2K_FhQDWxMsrO-ciHMQw?e=qRgFjl</t>
+          <t> </t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2191,25 +1941,20 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI Board Meeting</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ASI Board Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EVebeknTfMJAkZ9qgZJHgHYBvKOCKdmSmepZ8YwLZ6mcZA?e=24VCdy</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EVebeknTfMJAkZ9qgZJHgHYBvKOCKdmSmepZ8YwLZ6mcZA?e=24VCdy</t>
+          <t> </t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2226,25 +1971,20 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EU49j8p6PsVIjFxmMdzFH5IBrB70uIUPjGtxbK4Yb9rk2Q?e=Neba9b</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EU49j8p6PsVIjFxmMdzFH5IBrB70uIUPjGtxbK4Yb9rk2Q?e=Neba9b</t>
+          <t> </t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2261,25 +2001,20 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI Board Meeting</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ASI Board Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EWIQHdWUSChDvh7lsqwQEm8BWDo4lgIFIGyk-Yqo0PsSug?e=SFkWig</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EWIQHdWUSChDvh7lsqwQEm8BWDo4lgIFIGyk-Yqo0PsSug?e=SFkWig</t>
+          <t> </t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2296,25 +2031,20 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ES7s1slLsVJAnuiZZuoJpdQBJSjMz2_UTirRj1_QFprXNQ?e=akNh3p</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ES7s1slLsVJAnuiZZuoJpdQBJSjMz2_UTirRj1_QFprXNQ?e=akNh3p</t>
+          <t> </t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2331,25 +2061,20 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI Board Meeting</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ASI Board Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EcEPpuKT8DFGgnF9NT_p2p8BSsGxCgwjkGaLCkLfaDNAHA?e=Uofsd2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EcEPpuKT8DFGgnF9NT_p2p8BSsGxCgwjkGaLCkLfaDNAHA?e=Uofsd2</t>
+          <t> </t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2366,25 +2091,20 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EdWQNYKAPNZFkXUPY3G0e_IBScj4iHrI7oC9ldpSSXyT5w?e=UA1Us0</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EdWQNYKAPNZFkXUPY3G0e_IBScj4iHrI7oC9ldpSSXyT5w?e=UA1Us0</t>
+          <t> </t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2401,25 +2121,20 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EdBkp0hoCB5LrNsOaVlW8g8BqZMJZ4XvJ5ymMd5qsSYx7g?e=rOMTIM</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EdBkp0hoCB5LrNsOaVlW8g8BqZMJZ4XvJ5ymMd5qsSYx7g?e=rOMTIM</t>
+          <t> </t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2436,25 +2151,20 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EW0A37XSvCNCgwXutpKs48YB0fNsp0FG7Z3iFHY9yEw1Pg?e=eQM3Tp</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EW0A37XSvCNCgwXutpKs48YB0fNsp0FG7Z3iFHY9yEw1Pg?e=eQM3Tp</t>
+          <t> </t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2471,25 +2181,20 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EcZUJK0M_ZZGijppcabvvE4BOUQyDnJJymie4jn4QFcZfQ?e=20A8d6</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EcZUJK0M_ZZGijppcabvvE4BOUQyDnJJymie4jn4QFcZfQ?e=20A8d6</t>
+          <t> </t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2506,25 +2211,20 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ETrP3swBFxFHmhTmIYmWiBoBYsuTFj9F_vOlKFTYrsYMIQ?e=XVo5Kr</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ETrP3swBFxFHmhTmIYmWiBoBYsuTFj9F_vOlKFTYrsYMIQ?e=XVo5Kr</t>
+          <t> </t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2541,25 +2241,20 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EfwUdO2ab-NDtyKno1cQD9cBLB_PBhpNqiFG86tR3em0fQ?e=wWgWgL</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EfwUdO2ab-NDtyKno1cQD9cBLB_PBhpNqiFG86tR3em0fQ?e=wWgWgL</t>
+          <t> </t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2576,25 +2271,20 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQs2TfiVDjdLhpkN531jND4B9gmnMwRXY1i86WY56pki8w?e=K2PRwd</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQs2TfiVDjdLhpkN531jND4B9gmnMwRXY1i86WY56pki8w?e=K2PRwd</t>
+          <t> </t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2611,25 +2301,20 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EXrU3HJc0g9HhUZlMkmswK4BWHtUZ-UuJyuTKjQCx78f0A?e=kJRcO5</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EXrU3HJc0g9HhUZlMkmswK4BWHtUZ-UuJyuTKjQCx78f0A?e=kJRcO5</t>
+          <t> </t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2646,25 +2331,20 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EcogtNfGLIhBnLGMF74-dFABWAUcgdQxYxoVzfeETkfE6w?e=TqaSc5</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EcogtNfGLIhBnLGMF74-dFABWAUcgdQxYxoVzfeETkfE6w?e=TqaSc5</t>
+          <t> </t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2681,25 +2361,20 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQfvHlnuImlLvCX4K6bMjO8BmOCBjbaaQfl0d9cOt0GnmQ?e=SECmye</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQfvHlnuImlLvCX4K6bMjO8BmOCBjbaaQfl0d9cOt0GnmQ?e=SECmye</t>
+          <t> </t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2716,25 +2391,20 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ESNLnaOnya1Fs_DGP6wQ8Z0BhuOYat3OU_tPIAsl_2xiKA?e=Xs3tIb</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ESNLnaOnya1Fs_DGP6wQ8Z0BhuOYat3OU_tPIAsl_2xiKA?e=Xs3tIb</t>
+          <t> </t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2751,25 +2421,20 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EUlc9qBx0eJLiYqDAKTTLqYB18ZM70t6UTHMrLB73AwNdg?e=5uIN3w</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EUlc9qBx0eJLiYqDAKTTLqYB18ZM70t6UTHMrLB73AwNdg?e=5uIN3w</t>
+          <t> </t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2786,25 +2451,20 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EZ_87qH8goFKiJyYYZkSDqQB0qAnl1k-65__rFzYIBsudQ?e=zHrBV5</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EZ_87qH8goFKiJyYYZkSDqQB0qAnl1k-65__rFzYIBsudQ?e=zHrBV5</t>
+          <t> </t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2821,25 +2481,20 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EaTjOcfKHzNIrFdVHgjVn_8Bz6JfoDOThw_9jJG6c2LM4A?e=z94Oze</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EaTjOcfKHzNIrFdVHgjVn_8Bz6JfoDOThw_9jJG6c2LM4A?e=z94Oze</t>
+          <t> </t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2856,25 +2511,20 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EbkWj0R6MsROly7z3cJG9e8BrPJyxUMJFzVv0uOnn7DOzQ?e=nxbtLI</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EbkWj0R6MsROly7z3cJG9e8BrPJyxUMJFzVv0uOnn7DOzQ?e=nxbtLI</t>
+          <t> </t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2891,25 +2541,20 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ESi5LoDiHHdHipp3-k07hn0BSSDd7m4ODuFb-2OKh1Z5pA?e=VvseHt</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ESi5LoDiHHdHipp3-k07hn0BSSDd7m4ODuFb-2OKh1Z5pA?e=VvseHt</t>
+          <t> </t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2926,25 +2571,20 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EYctBy-2IJNBqsUnFuTVIVYB3roqPE2g1BsuuqKfUKjaVw?e=NPxksb</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EYctBy-2IJNBqsUnFuTVIVYB3roqPE2g1BsuuqKfUKjaVw?e=NPxksb</t>
+          <t> </t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2961,25 +2601,20 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ETGn9UNjplZJu7VjcF-WD0wBnaDMS-K1EZ4_MwP9K4073g?e=ZmJ5BC</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ETGn9UNjplZJu7VjcF-WD0wBnaDMS-K1EZ4_MwP9K4073g?e=ZmJ5BC</t>
+          <t> </t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -2996,25 +2631,20 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EUHWiAP5Wt1BjBiGgVttniwBu4Zbs0z1fcJ5PU8xJOxewQ?e=T15Ogc</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EUHWiAP5Wt1BjBiGgVttniwBu4Zbs0z1fcJ5PU8xJOxewQ?e=T15Ogc</t>
+          <t> </t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3031,25 +2661,20 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EdUpwCLsN5BLu0GgpJH8iJMBA-3jfcZ2l0Cb3h_stYtkHg?e=s9jK0s</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EdUpwCLsN5BLu0GgpJH8iJMBA-3jfcZ2l0Cb3h_stYtkHg?e=s9jK0s</t>
+          <t> </t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3066,25 +2691,20 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ET1vlXeZGUVKgpqtmg6-rkUBZsDOGjARSJJxsqkdSAYAIQ?e=YihKen</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ET1vlXeZGUVKgpqtmg6-rkUBZsDOGjARSJJxsqkdSAYAIQ?e=YihKen</t>
+          <t> </t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3101,25 +2721,20 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EfbXWyAQ2elFi183AJ7pW-cB8nsfK5CBjO6NvZL0GaDI-Q?e=5Sbrxb</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EfbXWyAQ2elFi183AJ7pW-cB8nsfK5CBjO6NvZL0GaDI-Q?e=5Sbrxb</t>
+          <t> </t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3136,25 +2751,20 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EeBC0B4SGE1PmLSXK535wlIBOcasN2rNouey6zRB88d_ew?e=G72XUo</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EeBC0B4SGE1PmLSXK535wlIBOcasN2rNouey6zRB88d_ew?e=G72XUo</t>
+          <t> </t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3171,25 +2781,20 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Edn29n_ZiPdDv7og6V2nm1UBODlQs994fLSTNYrSgD4IZg?e=QcgHqT</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Edn29n_ZiPdDv7og6V2nm1UBODlQs994fLSTNYrSgD4IZg?e=QcgHqT</t>
+          <t> </t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3206,25 +2811,20 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EVAxtexMZYpDlELCKrre4AoBOVMy9mZni38hXQOyD9KlUQ?e=XsGPah</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EVAxtexMZYpDlELCKrre4AoBOVMy9mZni38hXQOyD9KlUQ?e=XsGPah</t>
+          <t> </t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3241,25 +2841,20 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ETfuLkMEmTNFiU6Jkm6DCJcBSWMSXVAgRT2z6dmY_Tirwg?e=oCCW4o</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ETfuLkMEmTNFiU6Jkm6DCJcBSWMSXVAgRT2z6dmY_Tirwg?e=oCCW4o</t>
+          <t> </t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3276,25 +2871,20 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EapWUqL9wdVNlomc6fvsPlYBx_pOflmRTH7uPOAfiVApvA?e=TUQXTd</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EapWUqL9wdVNlomc6fvsPlYBx_pOflmRTH7uPOAfiVApvA?e=TUQXTd</t>
+          <t> </t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3311,25 +2901,20 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EeWAwMy1JVJGkCEsrbl3N_QBl9KYkh8IdGibinR03DxQVg?e=NbEIRv</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EeWAwMy1JVJGkCEsrbl3N_QBl9KYkh8IdGibinR03DxQVg?e=NbEIRv</t>
+          <t> </t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3346,25 +2931,20 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EexMWfQheCFAjtSC3BYBNwoBVEuu6r8-3BXv44UUI049_w?e=17jK2Q</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EexMWfQheCFAjtSC3BYBNwoBVEuu6r8-3BXv44UUI049_w?e=17jK2Q</t>
+          <t> </t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3381,25 +2961,20 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EY3q93-DE6lArjBpgqpqfk8BpRv5NoM2VdgcNWGys9iLXQ?e=Q6zOCI</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EY3q93-DE6lArjBpgqpqfk8BpRv5NoM2VdgcNWGys9iLXQ?e=Q6zOCI</t>
+          <t> </t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3416,25 +2991,20 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EWjdRWaadJVKmmmcdnvqgXcBjpY6giQfIW3kwRDp37uZLg?e=qUmdhc</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EWjdRWaadJVKmmmcdnvqgXcBjpY6giQfIW3kwRDp37uZLg?e=qUmdhc</t>
+          <t> </t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3451,25 +3021,20 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EVpoC3AcKb1BjYD4kFvRiYABTKijEen8c7bMohmSjz9DmA?e=obhm1e</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EVpoC3AcKb1BjYD4kFvRiYABTKijEen8c7bMohmSjz9DmA?e=obhm1e</t>
+          <t> </t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3486,25 +3051,20 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EXapjA7vsSRClIsiXwlP9VEBwDtAFWOyJxFi5GkGWwKmgQ?e=KdhiqO</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EXapjA7vsSRClIsiXwlP9VEBwDtAFWOyJxFi5GkGWwKmgQ?e=KdhiqO</t>
+          <t> </t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3521,25 +3081,20 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EY4C62H0PytBnoMsyvPHVpMBSZ4ZwL7qBs6XZqCW-7QvEA?e=TCQsxR</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EY4C62H0PytBnoMsyvPHVpMBSZ4ZwL7qBs6XZqCW-7QvEA?e=TCQsxR</t>
+          <t> </t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3556,25 +3111,20 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EVj1vSRPnjVFvuONOzeqKx8BNYH3rGmqeoadnxV6EnUAYg?e=8C1XA0</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EVj1vSRPnjVFvuONOzeqKx8BNYH3rGmqeoadnxV6EnUAYg?e=8C1XA0</t>
+          <t> </t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3591,25 +3141,20 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ETpMzYo5Oi9Piz2zk554iokBZbIxAxvCz_FMriNEzAXJYQ?e=WZaA0B</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ETpMzYo5Oi9Piz2zk554iokBZbIxAxvCz_FMriNEzAXJYQ?e=WZaA0B</t>
+          <t> </t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3626,25 +3171,20 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQximS9QSVVNhgCm5fT8ZE4BAHNAWg15eG3Xw7mMNsnnXw?e=1Jgv7G</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQximS9QSVVNhgCm5fT8ZE4BAHNAWg15eG3Xw7mMNsnnXw?e=1Jgv7G</t>
+          <t> </t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3661,25 +3201,20 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQiis-kjeGNCm6dhU4zGIAEBmTDuKf2t9HC0JwE9EAlCzQ?e=82Yih6</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQiis-kjeGNCm6dhU4zGIAEBmTDuKf2t9HC0JwE9EAlCzQ?e=82Yih6</t>
+          <t> </t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3696,25 +3231,20 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ESBlcKDBpQpCqBq2Hlh-L34Bgz0WTwvJF4Yyrt_7eWO4XQ?e=TpQNSn</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ESBlcKDBpQpCqBq2Hlh-L34Bgz0WTwvJF4Yyrt_7eWO4XQ?e=TpQNSn</t>
+          <t> </t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3731,25 +3261,20 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ESeZUTs3smxCp2WNS25nAA8Bal73bxmgiiZfVnGtoKD2EA?e=LPpgHt</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ESeZUTs3smxCp2WNS25nAA8Bal73bxmgiiZfVnGtoKD2EA?e=LPpgHt</t>
+          <t> </t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3766,25 +3291,20 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EUkeSZBtUMJOhwTSL9HkXYoBwQBoz5LkiFQqJJRAMoCIiQ?e=Jw6PZQ</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EUkeSZBtUMJOhwTSL9HkXYoBwQBoz5LkiFQqJJRAMoCIiQ?e=Jw6PZQ</t>
+          <t> </t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3801,25 +3321,20 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EV-E8hlBdjBKlItQ-WPUm4oBxOUQd3viEwseQTW-7atqLQ?e=B1hbNQ</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EV-E8hlBdjBKlItQ-WPUm4oBxOUQd3viEwseQTW-7atqLQ?e=B1hbNQ</t>
+          <t> </t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3836,25 +3351,20 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EbcMwu4JYsJKnPKjjuzBvFYBIXiq7RgpLeHLNXoeLX_hqA?e=UwAWb3</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EbcMwu4JYsJKnPKjjuzBvFYBIXiq7RgpLeHLNXoeLX_hqA?e=UwAWb3</t>
+          <t> </t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3871,25 +3381,20 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ES87bvncR71AhnA2HWGujBMBXGYdX0LzU1Ld11t7zySfZg?e=2DcktN</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ES87bvncR71AhnA2HWGujBMBXGYdX0LzU1Ld11t7zySfZg?e=2DcktN</t>
+          <t> </t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3906,25 +3411,20 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EY1R4LRNnHtBscGGFEu15dMBl-Lv-ofDfnpWjUXYYOPEiA?e=17Qtm1</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EY1R4LRNnHtBscGGFEu15dMBl-Lv-ofDfnpWjUXYYOPEiA?e=17Qtm1</t>
+          <t> </t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3941,25 +3441,20 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EW_LXsPMZjJErcY3Uc0dwW8BmCVndkNeftVxLvB7NYwJWA?e=Qu82Av</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EW_LXsPMZjJErcY3Uc0dwW8BmCVndkNeftVxLvB7NYwJWA?e=Qu82Av</t>
+          <t> </t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -3976,25 +3471,20 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EXYoBON0PbxCqJDZhiz04eQBYXxtpWbHxRAHXhMjiYI6pQ?e=Uc7da0</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EXYoBON0PbxCqJDZhiz04eQBYXxtpWbHxRAHXhMjiYI6pQ?e=Uc7da0</t>
+          <t> </t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4011,25 +3501,20 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ed98WHxYKyJBld36Ct27zgMBUkFxdRQwSGgwoOY6VB6xuw?e=54eMUr</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ed98WHxYKyJBld36Ct27zgMBUkFxdRQwSGgwoOY6VB6xuw?e=54eMUr</t>
+          <t> </t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4046,25 +3531,20 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EX-8VrlA2-VAvRMy5fm8-TIB0VS-p7s0-YQiGJFoO9hBJQ?e=2PNIrd</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EX-8VrlA2-VAvRMy5fm8-TIB0VS-p7s0-YQiGJFoO9hBJQ?e=2PNIrd</t>
+          <t> </t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4081,25 +3561,20 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Eaf8qXoeU9FMowyfrIzeJZkBDkxy_g5p5ZuLwbn1k0hKjw?e=yhNl7Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Eaf8qXoeU9FMowyfrIzeJZkBDkxy_g5p5ZuLwbn1k0hKjw?e=yhNl7Z</t>
+          <t> </t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4116,25 +3591,20 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EdamWHtlpKFNiRB0sycYgs0BODl0TsOkhlgZxyka0EUVRg?e=Q4DphL</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EdamWHtlpKFNiRB0sycYgs0BODl0TsOkhlgZxyka0EUVRg?e=Q4DphL</t>
+          <t> </t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4151,25 +3621,20 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EZ0Ivm-5BXNOrdTUQZrqM3kBpkCecouQNXB-JMN6ZXTKTg?e=3miDGe</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EZ0Ivm-5BXNOrdTUQZrqM3kBpkCecouQNXB-JMN6ZXTKTg?e=3miDGe</t>
+          <t> </t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4186,25 +3651,20 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ET40OSZwmV5EhR3ovDvXtdYBQ-znIHpS2V-Z5KiNhCzZtA?e=zoGiHM</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ET40OSZwmV5EhR3ovDvXtdYBQ-znIHpS2V-Z5KiNhCzZtA?e=zoGiHM</t>
+          <t> </t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4221,25 +3681,20 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EYaBnXTl0flDqRvXojnjgJEBpVcEIP_Moz21632QcwAIRQ?e=f9byeB</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EYaBnXTl0flDqRvXojnjgJEBpVcEIP_Moz21632QcwAIRQ?e=f9byeB</t>
+          <t> </t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4256,25 +3711,20 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EWXNiRN-KZVGocmrb8SkvHoBIb1rPmnZo4M3mt_DRzFuaA?e=l3st0a</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EWXNiRN-KZVGocmrb8SkvHoBIb1rPmnZo4M3mt_DRzFuaA?e=l3st0a</t>
+          <t> </t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4291,25 +3741,20 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EZcuGq3gpT9FiqV6EgraDWQBmtda3Jpou-LY32q0xdKBUQ?e=0jMrMY</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EZcuGq3gpT9FiqV6EgraDWQBmtda3Jpou-LY32q0xdKBUQ?e=0jMrMY</t>
+          <t> </t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4326,25 +3771,20 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ET6bBYVxO5dCgBujpXABjLgBeYgccTpjQc8I2K6NSHYc_w?e=I41n3W</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ET6bBYVxO5dCgBujpXABjLgBeYgccTpjQc8I2K6NSHYc_w?e=I41n3W</t>
+          <t> </t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4361,25 +3801,20 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ESoTuN4YredLhBxlfrMgK8cB8jUgK_4YlPxI5M1hE9WwEA?e=UWLV5R</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ESoTuN4YredLhBxlfrMgK8cB8jUgK_4YlPxI5M1hE9WwEA?e=UWLV5R</t>
+          <t> </t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4396,25 +3831,20 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ed6kL5R0pxBOu1jwh3hHs3AByPUCIW0djTuZElE-cWpe7w?e=nXw1CV</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ed6kL5R0pxBOu1jwh3hHs3AByPUCIW0djTuZElE-cWpe7w?e=nXw1CV</t>
+          <t> </t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4431,25 +3861,20 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EcIUWXBLxFhPu9O56dMEElMBBc-58LYA3tZDTDtLqShC5Q?e=06dLyg</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EcIUWXBLxFhPu9O56dMEElMBBc-58LYA3tZDTDtLqShC5Q?e=06dLyg</t>
+          <t> </t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4466,25 +3891,20 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EdHQTvy_ZGFGp2uIey8Opf8BXnE7mOWQXnpia9lmFELePA?e=RWX8CZ</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EdHQTvy_ZGFGp2uIey8Opf8BXnE7mOWQXnpia9lmFELePA?e=RWX8CZ</t>
+          <t> </t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4501,25 +3921,20 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EfHogTSfFTdPkDoR5UGRGB4BSHPZ2hFsIUwPgRNF07i7LQ?e=p1WHkF</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EfHogTSfFTdPkDoR5UGRGB4BSHPZ2hFsIUwPgRNF07i7LQ?e=p1WHkF</t>
+          <t> </t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4536,25 +3951,20 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EetoSxhtnsdFpQxyoTCne_kBEcYypfUG81BMeW8hWj12cQ?e=zCqOVB</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EetoSxhtnsdFpQxyoTCne_kBEcYypfUG81BMeW8hWj12cQ?e=zCqOVB</t>
+          <t> </t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4571,25 +3981,20 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ea1qGWB2naVFkAD-jS7H_ZYBQfb-9A2E5f2lzBBSIpvwkw?e=iTf19C</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ea1qGWB2naVFkAD-jS7H_ZYBQfb-9A2E5f2lzBBSIpvwkw?e=iTf19C</t>
+          <t> </t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4606,25 +4011,20 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EcOsLDjFVzFKrqksvqg8qbwBlInzM66XpGDjPolMnS4Iqw?e=wGTUiU</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EcOsLDjFVzFKrqksvqg8qbwBlInzM66XpGDjPolMnS4Iqw?e=wGTUiU</t>
+          <t> </t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4641,25 +4041,20 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EZax4yWffRBIhnvTH9pMzx8BJ2bWhcgN-NkcRKE2JhOutQ?e=HfOLYH</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EZax4yWffRBIhnvTH9pMzx8BJ2bWhcgN-NkcRKE2JhOutQ?e=HfOLYH</t>
+          <t> </t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4676,25 +4071,20 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EWCqkHHC-1FChUNmxELw1gEBxK3AzUu3da6NNEA08707Ag?e=P5Jwoc</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EWCqkHHC-1FChUNmxELw1gEBxK3AzUu3da6NNEA08707Ag?e=P5Jwoc</t>
+          <t> </t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4711,25 +4101,20 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EcohFkJgcZJGo83GJvDa2gEBFtIm6QkvezqvHt9cKAo0gA?e=EBEXuV</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EcohFkJgcZJGo83GJvDa2gEBFtIm6QkvezqvHt9cKAo0gA?e=EBEXuV</t>
+          <t> </t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4746,25 +4131,20 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ERlDZsp6GoFMkFiS_n3u6NQBc21OWN9-RJUOGqvh1HqCow?e=cufnAB</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ERlDZsp6GoFMkFiS_n3u6NQBc21OWN9-RJUOGqvh1HqCow?e=cufnAB</t>
+          <t> </t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4781,25 +4161,20 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EXoNumhrLf5Knn6dFqbM09gB-dHKNvg9diYalDQH6RpZzw?e=eRa4o6</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EXoNumhrLf5Knn6dFqbM09gB-dHKNvg9diYalDQH6RpZzw?e=eRa4o6</t>
+          <t> </t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4816,25 +4191,20 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ean-cjGFcaVMsUxtlAxKFo8BzD9L8ad2suWJNALhxoD1ZQ?e=fwGbXW</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ean-cjGFcaVMsUxtlAxKFo8BzD9L8ad2suWJNALhxoD1ZQ?e=fwGbXW</t>
+          <t> </t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4851,25 +4221,20 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EVtMBPWv-eBIhEk-pl2_3HQB2pq5jR0fd-ETITUYEnmHAg?e=M7aCPx</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EVtMBPWv-eBIhEk-pl2_3HQB2pq5jR0fd-ETITUYEnmHAg?e=M7aCPx</t>
+          <t> </t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4886,25 +4251,20 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EaAn00ZJO3lLjzrDC8fLPpABY4F91PeFksrWN8Tm_5dhGQ?e=2EYgI7</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EaAn00ZJO3lLjzrDC8fLPpABY4F91PeFksrWN8Tm_5dhGQ?e=2EYgI7</t>
+          <t> </t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4921,25 +4281,20 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EXgOyYyuCVFBncKdaAM9kJIBeQ5HaDFTunMnlr-LxJiLTw?e=y1YW8f</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EXgOyYyuCVFBncKdaAM9kJIBeQ5HaDFTunMnlr-LxJiLTw?e=y1YW8f</t>
+          <t> </t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4956,25 +4311,20 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EUi5FpC1wCJKkv7NVEK8bWsBaORB1cZMpvKLZe-cELJ_vw?e=rWqi5e</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EUi5FpC1wCJKkv7NVEK8bWsBaORB1cZMpvKLZe-cELJ_vw?e=rWqi5e</t>
+          <t> </t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -4991,25 +4341,20 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EUo8rA9k8eRDu2CVdcCT0yUBidFt_nSjY7dCvWDnMLPJZA?e=UCsmn7</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EUo8rA9k8eRDu2CVdcCT0yUBidFt_nSjY7dCvWDnMLPJZA?e=UCsmn7</t>
+          <t> </t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5026,25 +4371,20 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EUPejOI9ZwZMrp4TpD531OkBFZdnlZH4h2cesZ5Xp7h8XA?e=axWaMN</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EUPejOI9ZwZMrp4TpD531OkBFZdnlZH4h2cesZ5Xp7h8XA?e=axWaMN</t>
+          <t> </t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5061,25 +4401,20 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EXo_JoGrvtBCiV-0Mr1H1NwBgdj28GQMGy5VBaIAvV0H8Q?e=hAM5cY</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EXo_JoGrvtBCiV-0Mr1H1NwBgdj28GQMGy5VBaIAvV0H8Q?e=hAM5cY</t>
+          <t> </t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5096,25 +4431,20 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ETdxLGR_JaRCh56sP8OyX9EBqEZJ-QETMpDUR_SY2J4X7g?e=Ck9Lr3</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ETdxLGR_JaRCh56sP8OyX9EBqEZJ-QETMpDUR_SY2J4X7g?e=Ck9Lr3</t>
+          <t> </t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5131,25 +4461,20 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQfCHBRSgi5MoRFl2rWfGvEBomf3wZi51jidgyQOuFwgOA?e=uaVwyi</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQfCHBRSgi5MoRFl2rWfGvEBomf3wZi51jidgyQOuFwgOA?e=uaVwyi</t>
+          <t> </t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5166,25 +4491,20 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EZdEfuJ09i1MlnsodhWmhWoBX9lqNyL1suU3dkDzYSbRMw?e=4bPQS2</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EZdEfuJ09i1MlnsodhWmhWoBX9lqNyL1suU3dkDzYSbRMw?e=4bPQS2</t>
+          <t> </t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5201,25 +4521,20 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ETK1S6B7itxNlK2E1aruNNcBbAhS2roF4D4vBk_LzJ5O1Q?e=li0kAC</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ETK1S6B7itxNlK2E1aruNNcBbAhS2roF4D4vBk_LzJ5O1Q?e=li0kAC</t>
+          <t> </t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5236,25 +4551,20 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EZNTGECAugZEolmTgesBwg8BCwXGsqwiXobQmqqYHgfDSA?e=xFupez</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EZNTGECAugZEolmTgesBwg8BCwXGsqwiXobQmqqYHgfDSA?e=xFupez</t>
+          <t> </t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5271,25 +4581,20 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Eeh1Wrl9JE1LhymxZzrS6S4BfjpZJ4rC7GRHMzKTQ1liwA?e=CbCnMx</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Eeh1Wrl9JE1LhymxZzrS6S4BfjpZJ4rC7GRHMzKTQ1liwA?e=CbCnMx</t>
+          <t> </t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5306,25 +4611,20 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Eb7BLBUZnqVPqHvabHKCwe8BE_X9TLCVHEtqBo2aT3k4gg?e=q0bRtn</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Eb7BLBUZnqVPqHvabHKCwe8BE_X9TLCVHEtqBo2aT3k4gg?e=q0bRtn</t>
+          <t> </t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5341,25 +4641,20 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EVkAZqhlCC9HmvqYkrZYCf0BK60322bNcvKBiBvJzD7sog?e=KPywF4</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EVkAZqhlCC9HmvqYkrZYCf0BK60322bNcvKBiBvJzD7sog?e=KPywF4</t>
+          <t> </t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5376,25 +4671,20 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EcAXn3Gjw35MozbwM30tn8cBkNkzIXl8DWre7MDccs4R3g?e=p79mBc</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EcAXn3Gjw35MozbwM30tn8cBkNkzIXl8DWre7MDccs4R3g?e=p79mBc</t>
+          <t> </t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5411,25 +4701,20 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Edbqo7ktU3VPjSo-SPFj44YB5NfYJ_hQmqaI-z2iK1_Y2Q?e=nA8oIv</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Edbqo7ktU3VPjSo-SPFj44YB5NfYJ_hQmqaI-z2iK1_Y2Q?e=nA8oIv</t>
+          <t> </t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5446,25 +4731,20 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI BOD Meeting</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>ASI BOD Meeting</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQsrSI_6RBlIv2Tj763gXhEBQsIzFbIVmmuyooCmrs0zyw?e=LLqw60</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQsrSI_6RBlIv2Tj763gXhEBQsIzFbIVmmuyooCmrs0zyw?e=LLqw60</t>
+          <t> </t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5481,25 +4761,20 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Meeting Minutes</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Meeting Minutes</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ESt3qppDuYdBrOfIOM89iocB1pOrJXrzXZSCi2ki3536Fg?e=2kUiIG</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ESt3qppDuYdBrOfIOM89iocB1pOrJXrzXZSCi2ki3536Fg?e=2kUiIG</t>
+          <t> </t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5516,25 +4791,20 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI Statement of Information</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>ASI Statement of Information</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQkEWHBrgRtBplbCKIU0sWsBcpEpSJMmrKA2sCvbO5LuSw?e=plyW8t</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EQkEWHBrgRtBplbCKIU0sWsBcpEpSJMmrKA2sCvbO5LuSw?e=plyW8t</t>
+          <t> </t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5551,25 +4821,20 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Article of Incorporation</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Article of Incorporation</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EcufiaZpUQFDir3YEjS_ehIBNJDtrMhiYEw3Z7ZNVf_WRA?e=LdL14h</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EcufiaZpUQFDir3YEjS_ehIBNJDtrMhiYEw3Z7ZNVf_WRA?e=LdL14h</t>
+          <t> </t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5586,25 +4851,20 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Bylaws</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Bylaws</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EczvnnW8q6JDg6fTedeg_gABhBAAVIKZCopYp1mCafm-Nw?e=oGNDeq</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/EczvnnW8q6JDg6fTedeg_gABhBAAVIKZCopYp1mCafm-Nw?e=oGNDeq</t>
+          <t> </t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5621,25 +4881,20 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Policy and Procedures</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Policy and Procedures</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ETRmFjUCMlROuoUKYGqQKPoB7oXdILfIa01-YjQnbI_o9A?e=tpkaLo</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ETRmFjUCMlROuoUKYGqQKPoB7oXdILfIa01-YjQnbI_o9A?e=tpkaLo</t>
+          <t> </t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5656,25 +4911,20 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t> </t>
+          <t>ASI &amp; SC Point System</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>ASI &amp; SC Point System</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ETbVuiuFZ4hDseOEJlrI5LcB-maeDR3G9LzHuksWBZIAhg?e=XHEAoi</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/ETbVuiuFZ4hDseOEJlrI5LcB-maeDR3G9LzHuksWBZIAhg?e=XHEAoi</t>
+          <t> </t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5691,25 +4941,20 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Archives - Board of Directors Agendas</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Archives - Board of Directors Agendas</t>
+          <t>https://csustan.sharepoint.com/:f:/s/StanStatePublicDocs/EgYnZwAGOMFNljKgSLr-OAYB3XJUjEVtmAoIkHON5VUEwQ?e=AC9cHG</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:f:/s/StanStatePublicDocs/EgYnZwAGOMFNljKgSLr-OAYB3XJUjEVtmAoIkHON5VUEwQ?e=AC9cHG</t>
+          <t> </t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5726,25 +4971,20 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Archives - Board of Directors Minutes</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Archives - Board of Directors Minutes</t>
+          <t>https://csustan.sharepoint.com/:f:/s/StanStatePublicDocs/EmUG3ZGNQBNJmvlb-Tf-NXUB1nH89XEk4fqg-a3YfgIObg?e=odJhcN</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:f:/s/StanStatePublicDocs/EmUG3ZGNQBNJmvlb-Tf-NXUB1nH89XEk4fqg-a3YfgIObg?e=odJhcN</t>
+          <t> </t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5761,25 +5001,20 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Board of Directors Resolutions</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Board of Directors Resolutions</t>
+          <t>https://csustan.sharepoint.com/:f:/s/StanStatePublicDocs/EkGg3-_F0A1FstYkIG_gkCwBWaoaxCvUlN-jxrtCpay6bA?e=Rdcin7</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:f:/s/StanStatePublicDocs/EkGg3-_F0A1FstYkIG_gkCwBWaoaxCvUlN-jxrtCpay6bA?e=Rdcin7</t>
+          <t> </t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5796,25 +5031,20 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Support Letter Template</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Support Letter Template</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ee-DRuJ59zVFrdx2CBfZLSIBuV0NOO1DlELSZ0N2CBpFfg?e=Lptx38</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ee-DRuJ59zVFrdx2CBfZLSIBuV0NOO1DlELSZ0N2CBpFfg?e=Lptx38</t>
+          <t> </t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5831,25 +5061,20 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Phone Call Template</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Phone Call Template</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Eb0K4FPIaOlHp7OuUe55rqYBEoZtwi2Gs8O-ti2mIxjbUw?e=8P8ind</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Eb0K4FPIaOlHp7OuUe55rqYBEoZtwi2Gs8O-ti2mIxjbUw?e=8P8ind</t>
+          <t> </t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
         <is>
           <t> </t>
         </is>
@@ -5866,25 +5091,20 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Email Template</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Email Template</t>
+          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ee-DRuJ59zVFrdx2CBfZLSIBuV0NOO1DlELSZ0N2CBpFfg?e=61xn3T</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://csustan.sharepoint.com/:b:/s/StanStatePublicDocs/Ee-DRuJ59zVFrdx2CBfZLSIBuV0NOO1DlELSZ0N2CBpFfg?e=61xn3T</t>
+          <t> </t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
         <is>
           <t> </t>
         </is>
